--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_LapDat.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102" sheetId="36" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="36" r:id="rId1"/>
     <sheet name="TongThang" sheetId="25" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,72 @@
   </si>
   <si>
     <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.181101</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>13/01/2022</t>
+  </si>
+  <si>
+    <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15050</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim, không chốt GPS</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, FW</t>
+  </si>
+  <si>
+    <t>LK,CNFW</t>
+  </si>
+  <si>
+    <t>Thay module GPS, nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS, LK,NCFW</t>
+  </si>
+  <si>
+    <t>Sim lỗi, hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>14/1/2022</t>
   </si>
 </sst>
 </file>
@@ -263,10 +329,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,12 +395,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -462,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -581,9 +641,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,9 +668,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -638,15 +692,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,21 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1078,7 @@
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="55" customWidth="1"/>
     <col min="10" max="10" width="53" style="19" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
@@ -1046,46 +1097,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="45"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="51"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
@@ -1110,7 +1161,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="52"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -1127,109 +1178,109 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="46"/>
+      <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="46"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="63">
         <v>44683</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="63">
         <v>44683</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -1242,8 +1293,8 @@
       <c r="G6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="52" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1270,23 +1321,23 @@
         <v>30</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="70" t="s">
+      <c r="T6" s="58"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="61"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="63">
         <v>44683</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="63">
         <v>44683</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -1302,7 +1353,7 @@
       <c r="H7" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="52" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="1"/>
@@ -1327,21 +1378,21 @@
         <v>25</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="71"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="61"/>
+      <c r="W7" s="58"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="63">
         <v>44683</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="63">
         <v>44683</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -1355,7 +1406,7 @@
         <v>68</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="52" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1382,295 +1433,579 @@
         <v>30</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="71"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="61"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="59">
+        <v>44896</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868345035620160</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="71"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="61"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="38">
+        <v>864811037159857</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="39"/>
+      <c r="I10" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="71"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="61"/>
+      <c r="W10" s="58"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868345031035231</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="61"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="38">
+        <v>866050031811670</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>64</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="70" t="s">
+      <c r="T12" s="58"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="61"/>
+      <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="37"/>
+      <c r="B13" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868926033914984</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="I13" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="71"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="61"/>
+      <c r="W13" s="58"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="48"/>
+      <c r="B14" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="38">
+        <v>869627031845290</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="71"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="61"/>
+      <c r="W14" s="58"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="38">
+        <v>869627031835523</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="I15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="61"/>
+      <c r="W15" s="58"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="B16" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="38">
+        <v>866192037813381</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="61"/>
+      <c r="W16" s="58"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868926033909794</v>
+      </c>
       <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="61"/>
+      <c r="U17" s="58"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="61"/>
+      <c r="W17" s="58"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="38">
+        <v>868926033949790</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="I18" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
+      <c r="O18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -1681,45 +2016,73 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="38">
+        <v>868926033923399</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="37"/>
+      <c r="I19" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="47"/>
+      <c r="W19" s="46"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="54"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1736,7 +2099,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1744,14 +2107,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="54"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1768,7 +2131,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1776,14 +2139,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="78"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="54"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="1"/>
@@ -1800,7 +2163,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1808,14 +2171,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="78"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="54"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1835,14 +2198,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="78"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="54"/>
+      <c r="I24" s="52"/>
       <c r="J24" s="1"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -1862,14 +2225,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="54"/>
+      <c r="I25" s="52"/>
       <c r="J25" s="1"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -1881,26 +2244,26 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="57" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="47"/>
+      <c r="W25" s="46"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="78"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="54"/>
+      <c r="I26" s="52"/>
       <c r="J26" s="1"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -1925,14 +2288,14 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="54"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="1"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -1957,14 +2320,14 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="78"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="54"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="9"/>
@@ -1981,7 +2344,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -1989,14 +2352,14 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
+      <c r="I29" s="52"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="9"/>
@@ -2021,14 +2384,14 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="54"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2053,14 +2416,14 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="54"/>
+      <c r="I31" s="52"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2077,7 +2440,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2085,14 +2448,14 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="54"/>
+      <c r="I32" s="52"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2117,14 +2480,14 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="78"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="54"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2149,14 +2512,14 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="78"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="54"/>
+      <c r="I34" s="52"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2181,14 +2544,14 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="78"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="54"/>
+      <c r="I35" s="52"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2205,7 +2568,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2213,14 +2576,14 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="54"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2245,14 +2608,14 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="54"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2269,7 +2632,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2277,14 +2640,14 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="54"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2304,14 +2667,14 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="54"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2331,14 +2694,14 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="54"/>
+      <c r="I40" s="52"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2363,14 +2726,14 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="54"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2395,14 +2758,14 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="54"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2422,14 +2785,14 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="54"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2449,14 +2812,14 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="78"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="54"/>
+      <c r="I44" s="52"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2485,14 +2848,14 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="54"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2524,14 +2887,14 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="78"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="54"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2563,14 +2926,14 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="78"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="54"/>
+      <c r="I47" s="52"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2602,14 +2965,14 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="78"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="54"/>
+      <c r="I48" s="52"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2644,14 +3007,14 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="78"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="54"/>
+      <c r="I49" s="52"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2663,23 +3026,23 @@
       <c r="R49" s="9"/>
       <c r="S49" s="3"/>
       <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
       <c r="X49" s="32"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="79"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="31"/>
-      <c r="I50" s="55"/>
+      <c r="I50" s="53"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
@@ -2688,26 +3051,26 @@
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
+      <c r="R50" s="42"/>
       <c r="S50" s="28"/>
       <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
       <c r="X50" s="32"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="78"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="54"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2719,23 +3082,23 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
       <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="80"/>
+      <c r="B52" s="62"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="56"/>
+      <c r="I52" s="54"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
       <c r="L52" s="33"/>
@@ -2747,23 +3110,23 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
       <c r="X52" s="32"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="80"/>
+      <c r="B53" s="62"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="56"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
       <c r="L53" s="33"/>
@@ -2775,23 +3138,23 @@
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
       <c r="X53" s="32"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="80"/>
+      <c r="B54" s="62"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="56"/>
+      <c r="I54" s="54"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
       <c r="L54" s="33"/>
@@ -2803,23 +3166,23 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
       <c r="X54" s="32"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="80"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="56"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
       <c r="L55" s="33"/>
@@ -2831,9 +3194,9 @@
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
       <c r="X55" s="32"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2909,43 +3272,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="45"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2990,100 +3353,100 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="77" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="46"/>
+      <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="46"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3096,7 +3459,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="1"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
@@ -3107,14 +3470,14 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="70" t="s">
+      <c r="T6" s="40"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="41"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -3124,10 +3487,10 @@
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="1"/>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
@@ -3138,12 +3501,12 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="71"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="41"/>
+      <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -3153,10 +3516,10 @@
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="1"/>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -3167,12 +3530,12 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="71"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="41"/>
+      <c r="W8" s="40"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3182,10 +3545,10 @@
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="1"/>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -3196,12 +3559,12 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="71"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="41"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3211,10 +3574,10 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="37"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="1"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -3225,12 +3588,12 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="71"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="41"/>
+      <c r="W10" s="40"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3240,10 +3603,10 @@
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="1"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -3254,12 +3617,12 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="41"/>
+      <c r="W11" s="40"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3269,10 +3632,10 @@
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="37"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="54"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="1"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -3283,14 +3646,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="70" t="s">
+      <c r="T12" s="40"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="41"/>
+      <c r="W12" s="40"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -3314,12 +3677,12 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="71"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="41"/>
+      <c r="W13" s="40"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3343,12 +3706,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="71"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="41"/>
+      <c r="W14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3373,11 +3736,11 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="41"/>
+      <c r="W15" s="40"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3402,11 +3765,11 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="41"/>
+      <c r="W16" s="40"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3431,9 +3794,9 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="41"/>
+      <c r="U17" s="40"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="41"/>
+      <c r="W17" s="40"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -3485,13 +3848,13 @@
       <c r="R19" s="9"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="42" t="s">
+      <c r="U19" s="41" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="47"/>
+      <c r="W19" s="46"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3666,13 +4029,13 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="42" t="s">
+      <c r="U25" s="41" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="47"/>
+      <c r="W25" s="46"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -4448,9 +4811,9 @@
       <c r="R49" s="9"/>
       <c r="S49" s="3"/>
       <c r="T49" s="34"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
       <c r="X49" s="32"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4459,10 +4822,10 @@
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
@@ -4473,12 +4836,12 @@
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="28"/>
-      <c r="R50" s="43"/>
+      <c r="R50" s="42"/>
       <c r="S50" s="28"/>
       <c r="T50" s="34"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
       <c r="X50" s="32"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4504,9 +4867,9 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="34"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
       <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4532,9 +4895,9 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="34"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
       <c r="X52" s="32"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4560,9 +4923,9 @@
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="34"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
       <c r="X53" s="32"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4588,9 +4951,9 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="34"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
       <c r="X54" s="32"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,9 +4979,9 @@
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="35"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
       <c r="X55" s="32"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="36" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -328,9 +328,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -522,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,131 +628,125 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showZeros="0" topLeftCell="J4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1071,7 @@
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
     <col min="10" max="10" width="53" style="19" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
@@ -1097,46 +1090,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="44"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
@@ -1161,7 +1154,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="50"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
@@ -1178,137 +1171,137 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="45"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="44"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="61">
         <v>44683</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="61">
         <v>44683</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>868926033975001</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="54"/>
+      <c r="I6" s="50" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1317,55 +1310,55 @@
       <c r="Q6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="36" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="72" t="s">
+      <c r="T6" s="56"/>
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="58"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="61">
         <v>44683</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="61">
         <v>44683</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>866192037818620</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="50" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="38" t="s">
         <v>74</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1374,53 +1367,53 @@
       <c r="Q7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="36" t="s">
         <v>25</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="73"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="58"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="61">
         <v>44683</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="61">
         <v>44683</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>868345031037849</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="50" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1429,57 +1422,57 @@
       <c r="Q8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="36" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="73"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="58"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="57">
         <v>44896</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>868345035620160</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="50" t="s">
         <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="38" t="s">
         <v>78</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1488,55 +1481,55 @@
       <c r="Q9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="36" t="s">
         <v>80</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="73"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="58"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>864811037159857</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="47" t="s">
+      <c r="L10" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="38" t="s">
         <v>78</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1545,55 +1538,55 @@
       <c r="Q10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="36" t="s">
         <v>80</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="73"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="58"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>868345031035231</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="52" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="50" t="s">
         <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="38" t="s">
         <v>91</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -1602,53 +1595,53 @@
       <c r="Q11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R11" s="36" t="s">
         <v>92</v>
       </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="73"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="58"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>866050031811670</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="46" t="s">
         <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38" t="s">
         <v>72</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39" t="s">
+      <c r="O12" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -1657,41 +1650,41 @@
       <c r="Q12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="36" t="s">
         <v>30</v>
       </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="72" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="58"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>868926033914984</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="46" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1700,14 +1693,14 @@
       <c r="K13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="38" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -1716,57 +1709,57 @@
       <c r="Q13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="36" t="s">
         <v>90</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="73"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="58"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>869627031845290</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="46" t="s">
         <v>76</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="46" t="s">
         <v>64</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -1775,39 +1768,39 @@
       <c r="Q14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="36" t="s">
         <v>24</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="73"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="58"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>869627031835523</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="46" t="s">
         <v>71</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1816,14 +1809,14 @@
       <c r="K15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>89</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -1832,41 +1825,41 @@
       <c r="Q15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="36" t="s">
         <v>90</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="58"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>866192037813381</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="50" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1875,14 +1868,14 @@
       <c r="K16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L16" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="38" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -1891,39 +1884,39 @@
       <c r="Q16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="R16" s="36" t="s">
         <v>90</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="58"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>868926033909794</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="50" t="s">
         <v>76</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1932,14 +1925,14 @@
       <c r="K17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="38" t="s">
         <v>89</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -1948,37 +1941,37 @@
       <c r="Q17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="36" t="s">
         <v>90</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="58"/>
+      <c r="U17" s="56"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="58"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>868926033949790</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="50" t="s">
         <v>71</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1987,14 +1980,14 @@
       <c r="K18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="38" t="s">
         <v>89</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -2003,7 +1996,7 @@
       <c r="Q18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="36" t="s">
         <v>90</v>
       </c>
       <c r="S18" s="3"/>
@@ -2016,24 +2009,24 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>868926033923399</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="50" t="s">
         <v>71</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -2042,14 +2035,14 @@
       <c r="K19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="38" t="s">
         <v>78</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="39" t="s">
+      <c r="O19" s="38" t="s">
         <v>61</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -2058,37 +2051,37 @@
       <c r="Q19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="37" t="s">
+      <c r="R19" s="36" t="s">
         <v>80</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="55" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="46"/>
+      <c r="W19" s="45"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="52"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="9"/>
@@ -2107,20 +2100,20 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="52"/>
+      <c r="I21" s="50"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="9"/>
@@ -2139,20 +2132,20 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="52"/>
+      <c r="I22" s="50"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="1"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="9"/>
@@ -2171,20 +2164,20 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="52"/>
+      <c r="I23" s="50"/>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9"/>
@@ -2198,20 +2191,20 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="50"/>
       <c r="J24" s="1"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="9"/>
@@ -2225,51 +2218,51 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="60"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="52"/>
+      <c r="I25" s="50"/>
       <c r="J25" s="1"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
+      <c r="O25" s="38"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="55" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="46"/>
+      <c r="W25" s="45"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="52"/>
+      <c r="I26" s="50"/>
       <c r="J26" s="1"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
+      <c r="O26" s="38"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="9"/>
@@ -2288,20 +2281,20 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="52"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="1"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
+      <c r="O27" s="38"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="9"/>
@@ -2320,20 +2313,20 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="52"/>
+      <c r="I28" s="50"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
+      <c r="O28" s="38"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="9"/>
@@ -2352,20 +2345,20 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="52"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
+      <c r="O29" s="38"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="9"/>
@@ -2384,14 +2377,14 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="52"/>
+      <c r="I30" s="50"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2416,14 +2409,14 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="52"/>
+      <c r="I31" s="50"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2448,14 +2441,14 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="52"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2480,14 +2473,14 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="60"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="52"/>
+      <c r="I33" s="50"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2512,14 +2505,14 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="60"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="52"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2544,14 +2537,14 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="60"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="52"/>
+      <c r="I35" s="50"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2576,14 +2569,14 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="52"/>
+      <c r="I36" s="50"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2608,14 +2601,14 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="60"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="52"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2640,14 +2633,14 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="52"/>
+      <c r="I38" s="50"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2667,14 +2660,14 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="60"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="52"/>
+      <c r="I39" s="50"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2694,14 +2687,14 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="60"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="52"/>
+      <c r="I40" s="50"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2726,14 +2719,14 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="52"/>
+      <c r="I41" s="50"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2758,14 +2751,14 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="60"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="52"/>
+      <c r="I42" s="50"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2785,14 +2778,14 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="52"/>
+      <c r="I43" s="50"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2812,14 +2805,14 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="60"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="52"/>
+      <c r="I44" s="50"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2848,14 +2841,14 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="52"/>
+      <c r="I45" s="50"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2887,14 +2880,14 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="60"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="52"/>
+      <c r="I46" s="50"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2926,14 +2919,14 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="60"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="52"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2965,14 +2958,14 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="60"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="52"/>
+      <c r="I48" s="50"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3007,14 +3000,14 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="60"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="52"/>
+      <c r="I49" s="50"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3026,23 +3019,23 @@
       <c r="R49" s="9"/>
       <c r="S49" s="3"/>
       <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
       <c r="X49" s="32"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="61"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="31"/>
-      <c r="I50" s="53"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="31"/>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
@@ -3051,26 +3044,26 @@
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="28"/>
-      <c r="R50" s="42"/>
+      <c r="R50" s="41"/>
       <c r="S50" s="28"/>
       <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
       <c r="X50" s="32"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="60"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="52"/>
+      <c r="I51" s="50"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3082,23 +3075,23 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
       <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="62"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
-      <c r="I52" s="54"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
       <c r="L52" s="33"/>
@@ -3110,23 +3103,23 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
       <c r="X52" s="32"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="62"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="54"/>
+      <c r="I53" s="52"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
       <c r="L53" s="33"/>
@@ -3138,23 +3131,23 @@
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
       <c r="X53" s="32"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="62"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="54"/>
+      <c r="I54" s="52"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
       <c r="L54" s="33"/>
@@ -3166,23 +3159,23 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
       <c r="X54" s="32"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="62"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="54"/>
+      <c r="I55" s="52"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
       <c r="L55" s="33"/>
@@ -3194,9 +3187,9 @@
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
       <c r="X55" s="32"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,13 +3204,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3229,6 +3215,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3239,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3272,43 +3265,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="44"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3353,472 +3346,834 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="45"/>
+      <c r="W4" s="44"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="41" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="45"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="44"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="B6" s="61">
+        <v>44683</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44683</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="37">
+        <v>868926033975001</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="72" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="40"/>
+      <c r="W6" s="39"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="61">
+        <v>44683</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44683</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="37">
+        <v>866192037818620</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="73"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="40"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="B8" s="61">
+        <v>44683</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44683</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="37">
+        <v>868345031037849</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="73"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="40"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="57">
+        <v>44896</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="37">
+        <v>868345035620160</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="73"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="40"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="B10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="37">
+        <v>864811037159857</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="73"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="40"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="B11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="37">
+        <v>868345031035231</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>91</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="73"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="40"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="B12" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="37">
+        <v>866050031811670</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="72" t="s">
+      <c r="T12" s="39"/>
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="40"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="1"/>
+      <c r="B13" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="37">
+        <v>868926033914984</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="73"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="40"/>
+      <c r="W13" s="39"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="B14" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="37">
+        <v>869627031845290</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="73"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="40"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="37">
+        <v>869627031835523</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="I15" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="37"/>
+      <c r="O15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="40"/>
+      <c r="W15" s="39"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="B16" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="37">
+        <v>866192037813381</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="37"/>
+      <c r="O16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="40"/>
+      <c r="W16" s="39"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="37">
+        <v>868926033909794</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="37"/>
+      <c r="O17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="40"/>
+      <c r="U17" s="39"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="40"/>
+      <c r="W17" s="39"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="37">
+        <v>868926033949790</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="9"/>
+      <c r="I18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="9"/>
+      <c r="O18" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -3829,32 +4184,60 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="37">
+        <v>868926033923399</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="9"/>
+      <c r="O19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="40" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="46"/>
+      <c r="W19" s="45"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3862,10 +4245,10 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3873,7 +4256,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="39"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="9"/>
@@ -3884,7 +4267,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3894,10 +4277,10 @@
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3905,7 +4288,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="39"/>
+      <c r="O21" s="38"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="9"/>
@@ -3916,7 +4299,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3926,10 +4309,10 @@
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="9"/>
       <c r="I22" s="1"/>
       <c r="J22" s="9"/>
@@ -3937,7 +4320,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="39"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="9"/>
@@ -3948,7 +4331,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3958,10 +4341,10 @@
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="9"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3969,7 +4352,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="39"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9"/>
@@ -3985,10 +4368,10 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="9"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3996,7 +4379,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-      <c r="O24" s="39"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="9"/>
@@ -4012,10 +4395,10 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="9"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4023,19 +4406,19 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="39"/>
+      <c r="O25" s="38"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="41" t="s">
+      <c r="U25" s="40" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="46"/>
+      <c r="W25" s="45"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -4043,10 +4426,10 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="9"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -4054,7 +4437,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
-      <c r="O26" s="39"/>
+      <c r="O26" s="38"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="9"/>
@@ -4075,10 +4458,10 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="9"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -4086,7 +4469,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="39"/>
+      <c r="O27" s="38"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="9"/>
@@ -4107,10 +4490,10 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4118,7 +4501,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="39"/>
+      <c r="O28" s="38"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="9"/>
@@ -4129,7 +4512,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4139,10 +4522,10 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4150,7 +4533,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="39"/>
+      <c r="O29" s="38"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="9"/>
@@ -4225,7 +4608,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4353,7 +4736,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4385,7 +4768,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4417,7 +4800,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4811,9 +5194,9 @@
       <c r="R49" s="9"/>
       <c r="S49" s="3"/>
       <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
       <c r="X49" s="32"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,10 +5205,10 @@
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
@@ -4836,12 +5219,12 @@
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="28"/>
-      <c r="R50" s="42"/>
+      <c r="R50" s="41"/>
       <c r="S50" s="28"/>
       <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
       <c r="X50" s="32"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,9 +5250,9 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
       <c r="X51" s="32"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4895,9 +5278,9 @@
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
       <c r="X52" s="32"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,9 +5306,9 @@
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
       <c r="X53" s="32"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4951,9 +5334,9 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
       <c r="X54" s="32"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,9 +5362,9 @@
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
       <c r="X55" s="32"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4996,13 +5379,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5014,6 +5390,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
